--- a/Project 3/Exam Three.xlsx
+++ b/Project 3/Exam Three.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\COP2800GroupWork\Project 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5115"/>
+    <workbookView xWindow="5320" yWindow="240" windowWidth="23480" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>UML tool</t>
   </si>
@@ -108,6 +106,9 @@
   </si>
   <si>
     <t>Inheritence</t>
+  </si>
+  <si>
+    <t>Instrucitons:</t>
   </si>
 </sst>
 </file>
@@ -146,31 +147,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -182,39 +165,39 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -223,7 +206,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -231,17 +214,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -251,7 +234,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -259,12 +242,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -273,18 +256,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,54 +277,52 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,44 +603,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="6"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="7"/>
+    <col min="5" max="5" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="2:8" ht="39" customHeight="1">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -672,370 +653,268 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="17" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="15">
+      <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <f>SUM(G3:G12)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <f>SUM(H3:H12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="15" spans="2:8" ht="15" thickBot="1">
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" thickBot="1">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="3:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Project 3/Exam Three.xlsx
+++ b/Project 3/Exam Three.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="240" windowWidth="23480" windowHeight="15700"/>
+    <workbookView xWindow="15400" yWindow="9280" windowWidth="23480" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>UML tool</t>
   </si>
@@ -109,13 +109,37 @@
   </si>
   <si>
     <t>Instrucitons:</t>
+  </si>
+  <si>
+    <t>UML_DIAGRAM.png</t>
+  </si>
+  <si>
+    <t>Main.main()</t>
+  </si>
+  <si>
+    <t>Animals.equals()</t>
+  </si>
+  <si>
+    <t>Main.java line 62</t>
+  </si>
+  <si>
+    <t>Dogs.equals()</t>
+  </si>
+  <si>
+    <t>Birds.equals()</t>
+  </si>
+  <si>
+    <t>Bird.java and Dog.java line 9</t>
+  </si>
+  <si>
+    <t>Main.java line 199 &amp; 207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +170,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,15 +312,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -323,8 +364,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,16 +654,16 @@
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="7"/>
-    <col min="5" max="5" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="6"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="1"/>
     <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
@@ -623,287 +671,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="2:8" ht="39" customHeight="1">
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="14" spans="2:8" ht="15">
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>SUM(G3:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5">
         <f>SUM(H3:H12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
